--- a/data/generated_summary.xlsx
+++ b/data/generated_summary.xlsx
@@ -473,12 +473,6 @@
       <c r="G2">
         <v>2</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>3000</v>
-      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
@@ -502,12 +496,6 @@
       <c r="G3">
         <v>6</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
@@ -531,12 +519,6 @@
       <c r="G4">
         <v>10</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
@@ -560,12 +542,6 @@
       <c r="G5">
         <v>12</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
@@ -588,12 +564,6 @@
       </c>
       <c r="G6">
         <v>17</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">

--- a/data/generated_summary.xlsx
+++ b/data/generated_summary.xlsx
@@ -557,13 +557,19 @@
         <v>284</v>
       </c>
       <c r="E6">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="F6">
         <v>45</v>
       </c>
       <c r="G6">
         <v>17</v>
+      </c>
+      <c r="H6">
+        <v>650</v>
+      </c>
+      <c r="I6">
+        <v>12014</v>
       </c>
     </row>
     <row r="7" spans="1:9">

--- a/data/generated_summary.xlsx
+++ b/data/generated_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Ricoverati con sintomi</t>
   </si>
@@ -61,7 +61,10 @@
     <t>29.02</t>
   </si>
   <si>
-    <t>1.03</t>
+    <t>01.03</t>
+  </si>
+  <si>
+    <t>02.03</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -659,6 +662,35 @@
         <v>21127</v>
       </c>
     </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>742</v>
+      </c>
+      <c r="C10">
+        <v>166</v>
+      </c>
+      <c r="D10">
+        <v>927</v>
+      </c>
+      <c r="E10">
+        <v>1835</v>
+      </c>
+      <c r="F10">
+        <v>149</v>
+      </c>
+      <c r="G10">
+        <v>52</v>
+      </c>
+      <c r="H10">
+        <v>2036</v>
+      </c>
+      <c r="I10">
+        <v>23345</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/generated_summary.xlsx
+++ b/data/generated_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Ricoverati con sintomi</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>02.03</t>
+  </si>
+  <si>
+    <t>03.03</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,6 +694,35 @@
         <v>23345</v>
       </c>
     </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>1034</v>
+      </c>
+      <c r="C11">
+        <v>229</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11">
+        <v>2263</v>
+      </c>
+      <c r="F11">
+        <v>160</v>
+      </c>
+      <c r="G11">
+        <v>79</v>
+      </c>
+      <c r="H11">
+        <v>2502</v>
+      </c>
+      <c r="I11">
+        <v>25856</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/generated_summary.xlsx
+++ b/data/generated_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Ricoverati con sintomi</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>03.03</t>
+  </si>
+  <si>
+    <t>04.03</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,6 +726,35 @@
         <v>25856</v>
       </c>
     </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>1346</v>
+      </c>
+      <c r="C12">
+        <v>295</v>
+      </c>
+      <c r="D12">
+        <v>1065</v>
+      </c>
+      <c r="E12">
+        <v>2706</v>
+      </c>
+      <c r="F12">
+        <v>276</v>
+      </c>
+      <c r="G12">
+        <v>107</v>
+      </c>
+      <c r="H12">
+        <v>3089</v>
+      </c>
+      <c r="I12">
+        <v>29837</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/generated_summary.xlsx
+++ b/data/generated_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Ricoverati con sintomi</t>
   </si>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t>Tamponi</t>
+  </si>
+  <si>
+    <t>Percentuale deceduti su Positivi</t>
+  </si>
+  <si>
+    <t>Percentuale Guariti su Positivi</t>
+  </si>
+  <si>
+    <t>Percentuale Terpaia Intensiva su Positivi</t>
   </si>
   <si>
     <t>23.02</t>
@@ -428,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,10 +468,19 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>54</v>
@@ -482,10 +500,22 @@
       <c r="G2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="H2">
+        <v>129</v>
+      </c>
+      <c r="J2">
+        <v>1.55</v>
+      </c>
+      <c r="K2">
+        <v>0.78</v>
+      </c>
+      <c r="L2">
+        <v>20.16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>101</v>
@@ -505,10 +535,22 @@
       <c r="G3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="H3">
+        <v>229</v>
+      </c>
+      <c r="J3">
+        <v>2.62</v>
+      </c>
+      <c r="K3">
+        <v>0.44</v>
+      </c>
+      <c r="L3">
+        <v>11.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>114</v>
@@ -528,10 +570,22 @@
       <c r="G4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="H4">
+        <v>322</v>
+      </c>
+      <c r="J4">
+        <v>3.11</v>
+      </c>
+      <c r="K4">
+        <v>0.31</v>
+      </c>
+      <c r="L4">
+        <v>10.87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>128</v>
@@ -551,10 +605,22 @@
       <c r="G5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="H5">
+        <v>400</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>0.75</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>248</v>
@@ -580,10 +646,19 @@
       <c r="I6">
         <v>12014</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>2.62</v>
+      </c>
+      <c r="K6">
+        <v>6.92</v>
+      </c>
+      <c r="L6">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>345</v>
@@ -609,10 +684,19 @@
       <c r="I7">
         <v>15695</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>2.36</v>
+      </c>
+      <c r="K7">
+        <v>5.18</v>
+      </c>
+      <c r="L7">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>401</v>
@@ -638,10 +722,19 @@
       <c r="I8">
         <v>18661</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <v>2.57</v>
+      </c>
+      <c r="K8">
+        <v>4.43</v>
+      </c>
+      <c r="L8">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>639</v>
@@ -667,10 +760,19 @@
       <c r="I9">
         <v>21127</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <v>2.01</v>
+      </c>
+      <c r="K9">
+        <v>4.9</v>
+      </c>
+      <c r="L9">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>742</v>
@@ -696,10 +798,19 @@
       <c r="I10">
         <v>23345</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>2.55</v>
+      </c>
+      <c r="K10">
+        <v>7.32</v>
+      </c>
+      <c r="L10">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>1034</v>
@@ -725,10 +836,19 @@
       <c r="I11">
         <v>25856</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <v>3.16</v>
+      </c>
+      <c r="K11">
+        <v>6.39</v>
+      </c>
+      <c r="L11">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>1346</v>
@@ -753,6 +873,15 @@
       </c>
       <c r="I12">
         <v>29837</v>
+      </c>
+      <c r="J12">
+        <v>3.46</v>
+      </c>
+      <c r="K12">
+        <v>8.93</v>
+      </c>
+      <c r="L12">
+        <v>9.550000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/generated_summary.xlsx
+++ b/data/generated_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Ricoverati con sintomi</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>04.03</t>
+  </si>
+  <si>
+    <t>05.03</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -884,6 +887,44 @@
         <v>9.550000000000001</v>
       </c>
     </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>1790</v>
+      </c>
+      <c r="C13">
+        <v>351</v>
+      </c>
+      <c r="D13">
+        <v>1155</v>
+      </c>
+      <c r="E13">
+        <v>3296</v>
+      </c>
+      <c r="F13">
+        <v>414</v>
+      </c>
+      <c r="G13">
+        <v>148</v>
+      </c>
+      <c r="H13">
+        <v>3858</v>
+      </c>
+      <c r="I13">
+        <v>32362</v>
+      </c>
+      <c r="J13">
+        <v>3.84</v>
+      </c>
+      <c r="K13">
+        <v>10.73</v>
+      </c>
+      <c r="L13">
+        <v>9.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/generated_summary.xlsx
+++ b/data/generated_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Ricoverati con sintomi</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>05.03</t>
+  </si>
+  <si>
+    <t>06.03</t>
   </si>
 </sst>
 </file>
@@ -440,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -925,6 +928,44 @@
         <v>9.1</v>
       </c>
     </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>2394</v>
+      </c>
+      <c r="C14">
+        <v>462</v>
+      </c>
+      <c r="D14">
+        <v>1060</v>
+      </c>
+      <c r="E14">
+        <v>3916</v>
+      </c>
+      <c r="F14">
+        <v>523</v>
+      </c>
+      <c r="G14">
+        <v>197</v>
+      </c>
+      <c r="H14">
+        <v>4636</v>
+      </c>
+      <c r="I14">
+        <v>36359</v>
+      </c>
+      <c r="J14">
+        <v>4.25</v>
+      </c>
+      <c r="K14">
+        <v>11.28</v>
+      </c>
+      <c r="L14">
+        <v>9.970000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
